--- a/pred_ohlcv/54_21/2020-01-20 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 ADA ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>-708677.8136484999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-704293.2358484999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-707260.4965484999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-707260.4965484999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-758352.0990484999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-785359.1825484999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-732571.3292484999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-732571.3292484999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-732806.1646484999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-732806.1646484999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-736996.5382401099</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-734806.1647401099</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-733720.8396401099</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-778050.3198401099</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-778034.66904011</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-801846.6654401099</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-808958.1868401099</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-808958.1868401099</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-808958.1868401099</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-806486.7157401099</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-806308.0379557199</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-814196.6708557198</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-840171.7346557198</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-841440.5752557198</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-960615.4479557199</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1014180.85695572</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1014180.85695572</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1014180.85695572</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1027984.17625572</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1018359.21335572</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-968359.2133557198</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-959859.2133557198</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-959859.2133557198</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-959859.2133557198</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-959859.2133557198</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-959859.2133557198</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-994692.4505557198</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-938115.1517557198</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-948647.3118557198</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-948647.3118557198</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-955747.3118557198</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-955222.9901557198</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-955222.9901557198</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-953852.9901557198</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-953852.9901557198</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-953785.1529557199</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-956028.3026557198</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-905709.6225557198</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1104802.35575572</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1104802.35575572</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1257604.48315572</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1245600.65875572</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1247601.65875572</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1247267.75345572</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1247218.81725572</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1243130.81725572</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1243687.43365572</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1225904.62375572</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1195496.30855572</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1130702.38235572</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1098224.62875572</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1065717.26725572</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1065731.15615572</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1066694.11075572</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1067573.96355572</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1067240.92525572</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1067240.92525572</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1067240.92525572</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-1067240.92525572</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1067240.92525572</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1066906.45875572</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1071784.94945572</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1053367.44725572</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1053843.88475572</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-1053843.88475572</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1053843.88475572</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1045916.21125572</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1029916.21125572</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1029273.20525572</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1013967.52915572</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-953713.7005557196</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-976202.1469557196</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-969338.5941557196</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-969338.5941557196</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-969338.5941557196</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-969338.5941557196</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-865340.2166557196</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-1214886.338336099</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1156166.398685599</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1156166.398685599</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1150811.849936099</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1150811.849936099</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1163353.355786599</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1173900.5825866</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1184635.400886599</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1173956.643186599</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1193840.2808866</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1193790.62797492</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1213019.696974919</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-1213019.696974919</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-1213019.696974919</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-1213009.696974919</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-1213009.696974919</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-1093751.076374919</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1093700.076374919</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1093700.076374919</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1093700.076374919</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-1091962.852374919</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-1056802.02857492</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-1025782.64286138</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-1025782.64286138</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-1026205.50286138</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-947391.3262613795</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-969787.2318613795</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-1029805.688161379</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-986316.7543613794</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-986316.7543613794</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-1068265.326361379</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-1085296.503861379</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-1085947.386761379</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-1090189.091161379</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1075708.156261379</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1138616.384361379</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1144772.007761379</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-1216535.167161379</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1186253.564061379</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-1299435.467361379</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-1185451.307919129</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-1088822.419977339</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-1098265.026377339</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-1103684.015977339</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-1110246.622277339</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-1154956.79969898</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-1153136.29969898</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-1152476.29969898</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-1152476.29969898</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-1047803.21149898</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-1047778.53679898</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-1047818.3897686</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-1047818.3897686</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-1047818.3897686</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-1070081.4272686</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-1070027.10508721</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-1071985.96888721</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-1071985.96888721</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-1071985.96888721</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-1072997.71688721</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-1072997.71688721</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-1072997.71688721</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-1069702.75952287</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-1079286.75442287</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-1079286.75442287</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-1554469.735581139</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-1554469.735581139</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-2507033.337240969</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-3087775.31600095</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 ADA ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>-708677.8136484999</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-704293.2358484999</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-707260.4965484999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-707260.4965484999</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-758352.0990484999</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-785359.1825484999</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-732571.3292484999</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-732571.3292484999</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-732806.1646484999</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-732806.1646484999</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-736996.5382401099</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-734806.1647401099</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-733720.8396401099</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-778050.3198401099</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-778034.66904011</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-801846.6654401099</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-808958.1868401099</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-808958.1868401099</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-808958.1868401099</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-806486.7157401099</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-806308.0379557199</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-814196.6708557198</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-840171.7346557198</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-841440.5752557198</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-960615.4479557199</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1014180.85695572</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1014180.85695572</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1014180.85695572</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1027984.17625572</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1018359.21335572</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-968359.2133557198</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-959859.2133557198</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-959859.2133557198</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-959859.2133557198</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-959859.2133557198</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-959859.2133557198</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-994692.4505557198</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-938115.1517557198</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-948647.3118557198</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-948647.3118557198</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-955747.3118557198</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-955222.9901557198</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-955222.9901557198</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-953852.9901557198</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-953852.9901557198</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-953785.1529557199</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-956028.3026557198</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-905709.6225557198</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1104802.35575572</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1104802.35575572</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1257604.48315572</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1245600.65875572</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1247601.65875572</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1247267.75345572</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1247218.81725572</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1243130.81725572</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1243687.43365572</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1225904.62375572</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1195496.30855572</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1130702.38235572</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1098224.62875572</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1065717.26725572</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1065731.15615572</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1066694.11075572</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1067573.96355572</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1067240.92525572</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1067240.92525572</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1067240.92525572</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-1067240.92525572</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1067240.92525572</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1066906.45875572</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1071784.94945572</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1053367.44725572</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1053843.88475572</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-1053843.88475572</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1053843.88475572</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1045916.21125572</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1029916.21125572</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1029273.20525572</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1013967.52915572</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-953713.7005557196</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-969338.5941557196</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-969338.5941557196</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-969338.5941557196</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-969338.5941557196</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-865340.2166557196</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-865340.2166557196</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-925942.2777557196</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-908296.7905557196</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-921549.8733557196</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-917399.6712557196</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-917399.6712557196</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-917399.6712557196</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-919353.5594933096</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-920843.5412933095</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-920853.5412933095</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-918894.6774343495</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-929574.1666343495</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-929574.1666343495</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-929574.1666343495</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1127496.869734349</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1117395.552134349</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1145916.03290622</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1150531.54540622</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-1253979.731336099</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-1225258.244936099</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-1225258.244936099</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1225258.244936099</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1214859.405836099</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-1214886.338336099</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-1214886.338336099</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-1214886.338336099</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1156166.398685599</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1156166.398685599</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1156166.398685599</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1150811.849936099</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1150811.849936099</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1163353.355786599</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1173900.5825866</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1184635.400886599</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1173956.643186599</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1193840.2808866</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1193790.62797492</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1213019.696974919</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-1213019.696974919</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-1213019.696974919</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-1213009.696974919</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-1213009.696974919</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-1093751.076374919</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1093700.076374919</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1093700.076374919</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1093700.076374919</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-1091962.852374919</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-1056802.02857492</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-1025782.64286138</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-1025782.64286138</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-1026205.50286138</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-947391.3262613795</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-969787.2318613795</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-1029805.688161379</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-986316.7543613794</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-986316.7543613794</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-1068265.326361379</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-1085296.503861379</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-1085947.386761379</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-1090189.091161379</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1075708.156261379</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1138616.384361379</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1144772.007761379</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-1216535.167161379</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-1239557.35796138</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-1210255.58356138</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-1210255.58356138</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1233696.87166138</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-1240589.52296138</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1385133.396272979</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1385500.218272979</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1327490.218272979</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1357297.866172979</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1357297.866172979</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-1513513.283972979</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-1185451.307919129</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-1185451.307919129</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-1088822.419977339</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-1098265.026377339</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-1103684.015977339</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-1110246.622277339</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-1133608.537477339</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-1155229.159677339</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-1155855.15659898</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-1155855.15659898</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-1155855.15659898</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-1152248.62839898</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-1154956.79969898</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-1153136.29969898</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-1152476.29969898</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-1152476.29969898</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-1047803.21149898</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-1047778.53679898</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-1047818.3897686</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-1047818.3897686</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-1047818.3897686</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-1070081.4272686</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-1070027.10508721</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-1071985.96888721</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-1071985.96888721</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-1071985.96888721</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-1072997.71688721</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-1072997.71688721</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-1072997.71688721</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-1069702.75952287</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-1079286.75442287</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-1079286.75442287</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-1554469.735581139</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-1554469.735581139</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-2507033.337240969</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-2990235.4938357</v>
       </c>
       <c r="H565">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-3087775.31600095</v>
       </c>
       <c r="H567">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
